--- a/documents/ファイル構成一覧表_※※主義.xlsx
+++ b/documents/ファイル構成一覧表_※※主義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD6D02-ED7C-44DE-8AE5-F63AFC739A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C5CC2E-CECA-43BD-8C4D-4EC64611F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -341,6 +341,51 @@
   </si>
   <si>
     <t>result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Food.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材1品分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面表示用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面jsp</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -791,7 +836,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B19" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -836,13 +881,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -855,13 +900,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -871,16 +916,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -890,16 +935,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -915,12 +960,31 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -934,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -953,31 +1017,11 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -985,16 +1029,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1004,16 +1048,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1023,16 +1067,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1042,16 +1086,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1061,18 +1105,75 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1082,12 +1183,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,15 +1360,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1295,18 +1405,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_※※主義.xlsx
+++ b/documents/ファイル構成一覧表_※※主義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C5CC2E-CECA-43BD-8C4D-4EC64611F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56732065-C225-4B1C-8E7B-10648C34DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -91,34 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面jsp</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -127,23 +99,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>common.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -173,52 +129,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用js</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表画面用js</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面共通css</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表示画面用css</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -453,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +380,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -827,16 +749,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B22" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B24" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -846,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -865,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -884,10 +806,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -903,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -922,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -941,10 +863,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -954,16 +876,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -973,16 +895,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -992,16 +914,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1011,17 +933,36 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1029,151 +970,82 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1183,9 +1055,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,27 +1235,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1405,9 +1268,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_※※主義.xlsx
+++ b/documents/ファイル構成一覧表_※※主義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56732065-C225-4B1C-8E7B-10648C34DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063EFC7-0B07-4B08-8037-6C514D0CC52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SuggestDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>料理1品分のデータを持つ、エンティティモデル</t>
     <rPh sb="0" eb="2">
       <t>リョウリ</t>
@@ -301,6 +297,69 @@
     <t>プロフィール画面jsp</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽田</t>
+    <rPh sb="0" eb="2">
+      <t>ハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村</t>
+    <rPh sb="0" eb="2">
+      <t>ノムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栗川</t>
+    <rPh sb="0" eb="2">
+      <t>クリカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FSuggestDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSuggestDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材関連のデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神部</t>
+    <rPh sb="0" eb="2">
+      <t>カンベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神部、栗川</t>
+    <rPh sb="0" eb="2">
+      <t>カンベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -705,7 +764,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -754,11 +813,13 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B24" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B16" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -773,7 +834,9 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -792,7 +855,9 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -806,12 +871,14 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -825,12 +892,14 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -841,15 +910,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -863,12 +934,14 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -876,18 +949,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -901,12 +976,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -920,12 +997,14 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -939,10 +1018,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -951,18 +1033,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -970,18 +1054,41 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>

--- a/documents/ファイル構成一覧表_※※主義.xlsx
+++ b/documents/ファイル構成一覧表_※※主義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063EFC7-0B07-4B08-8037-6C514D0CC52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BFADB-19BE-46AC-9827-F952F7563758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -361,6 +361,22 @@
     <rPh sb="0" eb="2">
       <t>カンベ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>footer.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッターjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーjsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -764,7 +780,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,7 +835,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B16" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -976,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
@@ -997,13 +1013,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1018,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1039,13 +1055,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1054,19 +1070,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1075,36 +1091,62 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
@@ -1162,12 +1204,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1342,15 +1381,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1375,18 +1426,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_※※主義.xlsx
+++ b/documents/ファイル構成一覧表_※※主義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BFADB-19BE-46AC-9827-F952F7563758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB758C6E-04D9-4E80-B3C2-B1476F29C51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-10725" yWindow="8550" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -173,20 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルト画面表示用</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>料理関連のデータアクセス用DAO</t>
     <rPh sb="0" eb="2">
       <t>リョウリ</t>
@@ -377,6 +363,207 @@
   </si>
   <si>
     <t>ヘッダーjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GalleryServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャラリー画面表示用</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ColumnServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラム画面表示用</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DfoodDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>料理の食材関連のデータアクセス用DAO</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>1</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ColumnDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラム関連のデータアクセス用DAO</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Column.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラムのデータを持つ、エンティティモデル</t>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultError.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラム画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gallery.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャラリ―画面jsp</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gallery.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jqfloat.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像をふわふわ動かすjs</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jqfloat.jsに引数を渡すjs</t>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気情報取得js</t>
+    <rPh sb="0" eb="4">
+      <t>テンキジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jquery-3.4.1.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jquery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gallery.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャラリー画面css</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewFile.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -384,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +586,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -777,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,12 +1024,12 @@
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B33" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -851,7 +1045,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -866,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -887,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -905,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -929,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -947,16 +1141,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -968,16 +1162,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -986,19 +1180,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1007,19 +1201,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1028,19 +1222,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1049,19 +1243,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1076,13 +1270,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1097,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1112,19 +1306,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1133,68 +1327,339 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1204,9 +1669,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1381,27 +1849,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1426,9 +1882,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>